--- a/media/excel/0001.xlsx
+++ b/media/excel/0001.xlsx
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D8" s="20" t="n">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="E8" s="21" t="n"/>
       <c r="F8" s="22" t="n"/>
@@ -2499,11 +2499,13 @@
       <c r="A13" s="37" t="n"/>
       <c r="B13" s="38" t="inlineStr">
         <is>
-          <t>GOLILLA PRESION MEDIUM. 5/8</t>
-        </is>
-      </c>
-      <c r="C13" s="39" t="n">
-        <v>2</v>
+          <t xml:space="preserve">FLANGE A-105 CL. 150 CIEGO 2 ́ ́ (2.42) </t>
+        </is>
+      </c>
+      <c r="C13" s="39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="D13" s="40" t="inlineStr">
         <is>
@@ -2511,10 +2513,10 @@
         </is>
       </c>
       <c r="E13" s="41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F13" s="42" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G13" s="112" t="n"/>
       <c r="H13" s="7" t="n"/>
@@ -2523,11 +2525,13 @@
       <c r="A14" s="43" t="n"/>
       <c r="B14" s="44" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLANGE A-105 CL. 150 CIEGO 2 ́ ́ (2.42) </t>
-        </is>
-      </c>
-      <c r="C14" s="45" t="n">
-        <v>5</v>
+          <t>GOLILLA PRESION MEDIUM. 5/8</t>
+        </is>
+      </c>
+      <c r="C14" s="45" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="D14" s="46" t="inlineStr">
         <is>
@@ -2535,10 +2539,10 @@
         </is>
       </c>
       <c r="E14" s="47" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F14" s="41" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="G14" s="112" t="n"/>
       <c r="H14" s="7" t="n"/>
@@ -2653,7 +2657,7 @@
         </is>
       </c>
       <c r="F24" s="70" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G24" s="112" t="n"/>
       <c r="H24" s="7" t="n"/>
@@ -2669,7 +2673,7 @@
         </is>
       </c>
       <c r="F25" s="75" t="n">
-        <v>95</v>
+        <v>3800</v>
       </c>
       <c r="G25" s="112" t="n"/>
       <c r="H25" s="7" t="n"/>
@@ -2685,7 +2689,7 @@
         </is>
       </c>
       <c r="F26" s="77" t="n">
-        <v>595</v>
+        <v>23800</v>
       </c>
       <c r="G26" s="112" t="n"/>
       <c r="H26" s="7" t="n"/>
@@ -2831,13 +2835,13 @@
     <row r="38" ht="15.75" customHeight="1" s="1">
       <c r="A38" s="93" t="inlineStr">
         <is>
-          <t>RMC EQUIPMENTS SPA</t>
+          <t>RMC CORPORATE SPA</t>
         </is>
       </c>
       <c r="B38" s="94" t="n"/>
       <c r="C38" s="95" t="inlineStr">
         <is>
-          <t>RUT: 77241488-9</t>
+          <t>RUT: 77289504-6</t>
         </is>
       </c>
       <c r="D38" s="96" t="n"/>
@@ -2849,7 +2853,7 @@
     <row r="39" ht="15.75" customHeight="1" s="1">
       <c r="A39" s="118" t="inlineStr">
         <is>
-          <t>GIRO: Servicios de Ingeniería</t>
+          <t>GIRO: Servicios de ingeniería</t>
         </is>
       </c>
       <c r="D39" s="97" t="n"/>
@@ -2861,7 +2865,7 @@
     <row r="40" ht="15.75" customHeight="1" s="1">
       <c r="A40" s="119" t="inlineStr">
         <is>
-          <t>Dirección: Pasaje Las Cinerarias 550, Concón - Viña del Mar</t>
+          <t>Dirección: Pasaje las cinerarias 550, Concón</t>
         </is>
       </c>
       <c r="B40" s="120" t="n"/>
@@ -2897,11 +2901,7 @@
       <c r="H42" s="7" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="1">
-      <c r="A43" s="128" t="inlineStr">
-        <is>
-          <t>Observaciones descargar</t>
-        </is>
-      </c>
+      <c r="A43" s="128" t="n"/>
       <c r="D43" s="114" t="n"/>
       <c r="E43" s="123" t="inlineStr">
         <is>
